--- a/Data/EC/NIT-9013909029.xlsx
+++ b/Data/EC/NIT-9013909029.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3C053EA1-9DCB-4867-BFA0-D3FE0AA492A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{39C68750-FD3A-4F39-8965-697614042CBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{849E9915-12AD-405D-BDDE-B780F29DD331}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{971512E7-6900-4774-8974-8279C831C32D}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -71,34 +71,34 @@
     <t>LUIS JAVIER ARRIETA YEPEZ</t>
   </si>
   <si>
+    <t>2201</t>
+  </si>
+  <si>
+    <t>2112</t>
+  </si>
+  <si>
+    <t>2111</t>
+  </si>
+  <si>
+    <t>2110</t>
+  </si>
+  <si>
+    <t>2109</t>
+  </si>
+  <si>
+    <t>2108</t>
+  </si>
+  <si>
+    <t>2106</t>
+  </si>
+  <si>
     <t>2102</t>
   </si>
   <si>
-    <t>2106</t>
-  </si>
-  <si>
     <t>1143348214</t>
   </si>
   <si>
     <t>WILBER RAFAEL ARRIETA YEPEZ</t>
-  </si>
-  <si>
-    <t>2108</t>
-  </si>
-  <si>
-    <t>2109</t>
-  </si>
-  <si>
-    <t>2110</t>
-  </si>
-  <si>
-    <t>2111</t>
-  </si>
-  <si>
-    <t>2112</t>
-  </si>
-  <si>
-    <t>2201</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -512,7 +512,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1D217E09-7D12-F836-703A-48B8AA939BB8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{31023B23-C9A5-0298-D6D7-9AD65CFC205F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -863,7 +863,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7490D32A-E14D-49D3-B8FC-BC253A13C3D1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0FD74F4-72CD-4F8F-A0F2-7F4E9CCBC8D4}">
   <dimension ref="B2:J36"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
@@ -1041,7 +1041,7 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>15748</v>
+        <v>30284</v>
       </c>
       <c r="G16" s="18">
         <v>908526</v>
@@ -1078,13 +1078,13 @@
         <v>8</v>
       </c>
       <c r="C18" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18" s="16" t="s">
         <v>13</v>
-      </c>
-      <c r="D18" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="E18" s="16" t="s">
-        <v>12</v>
       </c>
       <c r="F18" s="18">
         <v>36341</v>
@@ -1101,13 +1101,13 @@
         <v>8</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D19" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E19" s="16" t="s">
         <v>14</v>
-      </c>
-      <c r="E19" s="16" t="s">
-        <v>15</v>
       </c>
       <c r="F19" s="18">
         <v>36341</v>
@@ -1170,13 +1170,13 @@
         <v>8</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F22" s="18">
         <v>36341</v>
@@ -1199,10 +1199,10 @@
         <v>10</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F23" s="18">
-        <v>36341</v>
+        <v>15748</v>
       </c>
       <c r="G23" s="18">
         <v>908526</v>
@@ -1216,16 +1216,16 @@
         <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F24" s="18">
-        <v>36341</v>
+        <v>29260</v>
       </c>
       <c r="G24" s="18">
         <v>908526</v>
@@ -1239,13 +1239,13 @@
         <v>8</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="F25" s="18">
         <v>36341</v>
@@ -1262,13 +1262,13 @@
         <v>8</v>
       </c>
       <c r="C26" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="D26" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26" s="16" t="s">
         <v>13</v>
-      </c>
-      <c r="D26" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="E26" s="16" t="s">
-        <v>18</v>
       </c>
       <c r="F26" s="18">
         <v>36341</v>
@@ -1285,13 +1285,13 @@
         <v>8</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="F27" s="18">
         <v>36341</v>
@@ -1308,13 +1308,13 @@
         <v>8</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="F28" s="18">
         <v>36341</v>
@@ -1331,16 +1331,16 @@
         <v>8</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="F29" s="18">
-        <v>30284</v>
+        <v>36341</v>
       </c>
       <c r="G29" s="18">
         <v>908526</v>
@@ -1354,16 +1354,16 @@
         <v>8</v>
       </c>
       <c r="C30" s="22" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D30" s="23" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="E30" s="22" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F30" s="24">
-        <v>29260</v>
+        <v>36341</v>
       </c>
       <c r="G30" s="24">
         <v>908526</v>

--- a/Data/EC/NIT-9013909029.xlsx
+++ b/Data/EC/NIT-9013909029.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{39C68750-FD3A-4F39-8965-697614042CBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5DF5D76A-5464-4439-A817-31C680265731}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{971512E7-6900-4774-8974-8279C831C32D}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{A0FC4EDD-10C2-4D02-AD95-93AD7E2DE308}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -71,34 +71,34 @@
     <t>LUIS JAVIER ARRIETA YEPEZ</t>
   </si>
   <si>
+    <t>2102</t>
+  </si>
+  <si>
+    <t>2106</t>
+  </si>
+  <si>
+    <t>1143348214</t>
+  </si>
+  <si>
+    <t>WILBER RAFAEL ARRIETA YEPEZ</t>
+  </si>
+  <si>
+    <t>2108</t>
+  </si>
+  <si>
+    <t>2109</t>
+  </si>
+  <si>
+    <t>2110</t>
+  </si>
+  <si>
+    <t>2111</t>
+  </si>
+  <si>
+    <t>2112</t>
+  </si>
+  <si>
     <t>2201</t>
-  </si>
-  <si>
-    <t>2112</t>
-  </si>
-  <si>
-    <t>2111</t>
-  </si>
-  <si>
-    <t>2110</t>
-  </si>
-  <si>
-    <t>2109</t>
-  </si>
-  <si>
-    <t>2108</t>
-  </si>
-  <si>
-    <t>2106</t>
-  </si>
-  <si>
-    <t>2102</t>
-  </si>
-  <si>
-    <t>1143348214</t>
-  </si>
-  <si>
-    <t>WILBER RAFAEL ARRIETA YEPEZ</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -197,7 +197,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -210,9 +212,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -412,23 +412,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -456,10 +456,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -512,7 +512,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{31023B23-C9A5-0298-D6D7-9AD65CFC205F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CA64914C-B22A-25CD-2314-9C556382226A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -863,7 +863,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0FD74F4-72CD-4F8F-A0F2-7F4E9CCBC8D4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{961DFDFE-097E-4A1E-8F0C-CBCEA8AD90F4}">
   <dimension ref="B2:J36"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
@@ -1041,7 +1041,7 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>30284</v>
+        <v>15748</v>
       </c>
       <c r="G16" s="18">
         <v>908526</v>
@@ -1078,19 +1078,19 @@
         <v>8</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F18" s="18">
         <v>36341</v>
       </c>
       <c r="G18" s="18">
-        <v>908526</v>
+        <v>877803</v>
       </c>
       <c r="H18" s="19"/>
       <c r="I18" s="19"/>
@@ -1107,7 +1107,7 @@
         <v>10</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F19" s="18">
         <v>36341</v>
@@ -1124,10 +1124,10 @@
         <v>8</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E20" s="16" t="s">
         <v>15</v>
@@ -1136,7 +1136,7 @@
         <v>36341</v>
       </c>
       <c r="G20" s="18">
-        <v>908526</v>
+        <v>877803</v>
       </c>
       <c r="H20" s="19"/>
       <c r="I20" s="19"/>
@@ -1170,19 +1170,19 @@
         <v>8</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F22" s="18">
         <v>36341</v>
       </c>
       <c r="G22" s="18">
-        <v>908526</v>
+        <v>877803</v>
       </c>
       <c r="H22" s="19"/>
       <c r="I22" s="19"/>
@@ -1199,10 +1199,10 @@
         <v>10</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F23" s="18">
-        <v>15748</v>
+        <v>36341</v>
       </c>
       <c r="G23" s="18">
         <v>908526</v>
@@ -1216,19 +1216,19 @@
         <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="F24" s="18">
-        <v>29260</v>
+        <v>36341</v>
       </c>
       <c r="G24" s="18">
-        <v>908526</v>
+        <v>877803</v>
       </c>
       <c r="H24" s="19"/>
       <c r="I24" s="19"/>
@@ -1239,13 +1239,13 @@
         <v>8</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="F25" s="18">
         <v>36341</v>
@@ -1262,19 +1262,19 @@
         <v>8</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F26" s="18">
         <v>36341</v>
       </c>
       <c r="G26" s="18">
-        <v>908526</v>
+        <v>877803</v>
       </c>
       <c r="H26" s="19"/>
       <c r="I26" s="19"/>
@@ -1285,13 +1285,13 @@
         <v>8</v>
       </c>
       <c r="C27" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D27" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E27" s="16" t="s">
         <v>19</v>
-      </c>
-      <c r="D27" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="E27" s="16" t="s">
-        <v>14</v>
       </c>
       <c r="F27" s="18">
         <v>36341</v>
@@ -1308,19 +1308,19 @@
         <v>8</v>
       </c>
       <c r="C28" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="D28" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="E28" s="16" t="s">
         <v>19</v>
-      </c>
-      <c r="D28" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="E28" s="16" t="s">
-        <v>15</v>
       </c>
       <c r="F28" s="18">
         <v>36341</v>
       </c>
       <c r="G28" s="18">
-        <v>908526</v>
+        <v>877803</v>
       </c>
       <c r="H28" s="19"/>
       <c r="I28" s="19"/>
@@ -1331,16 +1331,16 @@
         <v>8</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D29" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E29" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="E29" s="16" t="s">
-        <v>16</v>
-      </c>
       <c r="F29" s="18">
-        <v>36341</v>
+        <v>30284</v>
       </c>
       <c r="G29" s="18">
         <v>908526</v>
@@ -1354,19 +1354,19 @@
         <v>8</v>
       </c>
       <c r="C30" s="22" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D30" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="E30" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="E30" s="22" t="s">
-        <v>17</v>
-      </c>
       <c r="F30" s="24">
-        <v>36341</v>
+        <v>29260</v>
       </c>
       <c r="G30" s="24">
-        <v>908526</v>
+        <v>877803</v>
       </c>
       <c r="H30" s="25"/>
       <c r="I30" s="25"/>
